--- a/info.xlsx
+++ b/info.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,10 +471,15 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
+          <t>color_space</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
           <t>enrollment</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>training</t>
         </is>
@@ -515,10 +520,15 @@
           <t>RGB</t>
         </is>
       </c>
-      <c r="I2" t="n">
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Adobe RGB</t>
+        </is>
+      </c>
+      <c r="J2" t="n">
         <v>129</v>
       </c>
-      <c r="J2" t="n">
+      <c r="K2" t="n">
         <v>122</v>
       </c>
     </row>
@@ -557,10 +567,15 @@
           <t>RGB</t>
         </is>
       </c>
-      <c r="I3" t="n">
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Adobe RGB</t>
+        </is>
+      </c>
+      <c r="J3" t="n">
         <v>130</v>
       </c>
-      <c r="J3" t="n">
+      <c r="K3" t="n">
         <v>113</v>
       </c>
     </row>
@@ -599,10 +614,15 @@
           <t>RGB</t>
         </is>
       </c>
-      <c r="I4" t="n">
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Adobe RGB</t>
+        </is>
+      </c>
+      <c r="J4" t="n">
         <v>130</v>
       </c>
-      <c r="J4" t="n">
+      <c r="K4" t="n">
         <v>119</v>
       </c>
     </row>
@@ -641,10 +661,15 @@
           <t>RGB</t>
         </is>
       </c>
-      <c r="I5" t="n">
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Adobe RGB</t>
+        </is>
+      </c>
+      <c r="J5" t="n">
         <v>130</v>
       </c>
-      <c r="J5" t="n">
+      <c r="K5" t="n">
         <v>88</v>
       </c>
     </row>
@@ -683,10 +708,15 @@
           <t>RGB</t>
         </is>
       </c>
-      <c r="I6" t="n">
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Adobe RGB</t>
+        </is>
+      </c>
+      <c r="J6" t="n">
         <v>129</v>
       </c>
-      <c r="J6" t="n">
+      <c r="K6" t="n">
         <v>95</v>
       </c>
     </row>
@@ -725,10 +755,15 @@
           <t>RGB</t>
         </is>
       </c>
-      <c r="I7" t="n">
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Adobe RGB</t>
+        </is>
+      </c>
+      <c r="J7" t="n">
         <v>129</v>
       </c>
-      <c r="J7" t="n">
+      <c r="K7" t="n">
         <v>117</v>
       </c>
     </row>
@@ -767,10 +802,15 @@
           <t>RGB</t>
         </is>
       </c>
-      <c r="I8" t="n">
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>Adobe RGB</t>
+        </is>
+      </c>
+      <c r="J8" t="n">
         <v>129</v>
       </c>
-      <c r="J8" t="n">
+      <c r="K8" t="n">
         <v>84</v>
       </c>
     </row>
@@ -809,10 +849,15 @@
           <t>RGB</t>
         </is>
       </c>
-      <c r="I9" t="n">
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>Adobe RGB</t>
+        </is>
+      </c>
+      <c r="J9" t="n">
         <v>130</v>
       </c>
-      <c r="J9" t="n">
+      <c r="K9" t="n">
         <v>109</v>
       </c>
     </row>
@@ -851,10 +896,15 @@
           <t>RGB</t>
         </is>
       </c>
-      <c r="I10" t="n">
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>Adobe RGB</t>
+        </is>
+      </c>
+      <c r="J10" t="n">
         <v>130</v>
       </c>
-      <c r="J10" t="n">
+      <c r="K10" t="n">
         <v>80</v>
       </c>
     </row>
@@ -893,10 +943,15 @@
           <t>RGB</t>
         </is>
       </c>
-      <c r="I11" t="n">
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>Adobe RGB</t>
+        </is>
+      </c>
+      <c r="J11" t="n">
         <v>130</v>
       </c>
-      <c r="J11" t="n">
+      <c r="K11" t="n">
         <v>120</v>
       </c>
     </row>
@@ -935,10 +990,15 @@
           <t>RGB</t>
         </is>
       </c>
-      <c r="I12" t="n">
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>Adobe RGB</t>
+        </is>
+      </c>
+      <c r="J12" t="n">
         <v>129</v>
       </c>
-      <c r="J12" t="n">
+      <c r="K12" t="n">
         <v>94</v>
       </c>
     </row>
@@ -977,10 +1037,15 @@
           <t>RGB</t>
         </is>
       </c>
-      <c r="I13" t="n">
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>Adobe RGB</t>
+        </is>
+      </c>
+      <c r="J13" t="n">
         <v>130</v>
       </c>
-      <c r="J13" t="n">
+      <c r="K13" t="n">
         <v>91</v>
       </c>
     </row>
@@ -1019,10 +1084,15 @@
           <t>RGB</t>
         </is>
       </c>
-      <c r="I14" t="n">
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>Adobe RGB</t>
+        </is>
+      </c>
+      <c r="J14" t="n">
         <v>130</v>
       </c>
-      <c r="J14" t="n">
+      <c r="K14" t="n">
         <v>111</v>
       </c>
     </row>
@@ -1061,10 +1131,15 @@
           <t>RGB</t>
         </is>
       </c>
-      <c r="I15" t="n">
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>Adobe RGB</t>
+        </is>
+      </c>
+      <c r="J15" t="n">
         <v>129</v>
       </c>
-      <c r="J15" t="n">
+      <c r="K15" t="n">
         <v>95</v>
       </c>
     </row>
@@ -1103,10 +1178,15 @@
           <t>RGB</t>
         </is>
       </c>
-      <c r="I16" t="n">
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>Adobe RGB</t>
+        </is>
+      </c>
+      <c r="J16" t="n">
         <v>129</v>
       </c>
-      <c r="J16" t="n">
+      <c r="K16" t="n">
         <v>109</v>
       </c>
     </row>
@@ -1145,10 +1225,15 @@
           <t>RGB</t>
         </is>
       </c>
-      <c r="I17" t="n">
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>Adobe RGB</t>
+        </is>
+      </c>
+      <c r="J17" t="n">
         <v>130</v>
       </c>
-      <c r="J17" t="n">
+      <c r="K17" t="n">
         <v>105</v>
       </c>
     </row>
@@ -1187,10 +1272,15 @@
           <t>RGB</t>
         </is>
       </c>
-      <c r="I18" t="n">
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>Adobe RGB</t>
+        </is>
+      </c>
+      <c r="J18" t="n">
         <v>130</v>
       </c>
-      <c r="J18" t="n">
+      <c r="K18" t="n">
         <v>101</v>
       </c>
     </row>
@@ -1229,10 +1319,15 @@
           <t>RGB</t>
         </is>
       </c>
-      <c r="I19" t="n">
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>Adobe RGB</t>
+        </is>
+      </c>
+      <c r="J19" t="n">
         <v>130</v>
       </c>
-      <c r="J19" t="n">
+      <c r="K19" t="n">
         <v>113</v>
       </c>
     </row>
@@ -1271,10 +1366,15 @@
           <t>RGB</t>
         </is>
       </c>
-      <c r="I20" t="n">
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>Adobe RGB</t>
+        </is>
+      </c>
+      <c r="J20" t="n">
         <v>130</v>
       </c>
-      <c r="J20" t="n">
+      <c r="K20" t="n">
         <v>99</v>
       </c>
     </row>
@@ -1313,10 +1413,15 @@
           <t>RGB</t>
         </is>
       </c>
-      <c r="I21" t="n">
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>Adobe RGB</t>
+        </is>
+      </c>
+      <c r="J21" t="n">
         <v>129</v>
       </c>
-      <c r="J21" t="n">
+      <c r="K21" t="n">
         <v>90</v>
       </c>
     </row>
